--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail15 Features.xlsx
@@ -2791,7 +2791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,29 +2802,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2845,115 +2843,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2970,72 +2958,66 @@
         <v>1.53153394439103e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5065063711558014</v>
+        <v>7.943561262630819e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.1475623675473923</v>
+        <v>2.933957441838889e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.943561262630819e-07</v>
+        <v>0.08648829824269655</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.933957441838889e-06</v>
+        <v>0.1827654598440374</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08648829824269655</v>
+        <v>0.04086084715179773</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1827654598440374</v>
+        <v>1.373699006785909</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04086084715179773</v>
+        <v>1.503242407310635</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.307518655575718</v>
+        <v>4.133800179777576</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.503242407310635</v>
+        <v>1.706099064005863e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.133800179777576</v>
+        <v>15323050.41122572</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.706099064005863e-14</v>
+        <v>5.721310305419934e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>15323050.41122572</v>
+        <v>4.005850207016986</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.721310305419934e-06</v>
+        <v>0.0001362174070809914</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.005850207016986</v>
+        <v>8.356402813684012</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001362174070809914</v>
+        <v>1.469757552302194</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.356402813684012</v>
+        <v>0.00951198906669997</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.469757552302194</v>
+        <v>2.816919683398142</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00951198906669997</v>
+        <v>0.9180156531181785</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.816919683398142</v>
+        <v>1.971076526515172</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9180156531181785</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.971076526515172</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2155092553829612</v>
       </c>
     </row>
@@ -3050,72 +3032,66 @@
         <v>1.597021916153377e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.771674470213921</v>
+        <v>7.821984067928417e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2309372302877595</v>
+        <v>2.947082591336773e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.821984067928417e-07</v>
+        <v>0.08165935704610403</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.947082591336773e-06</v>
+        <v>0.1732789814569144</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08165935704610403</v>
+        <v>0.03668297066229429</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1732789814569144</v>
+        <v>1.334824131251133</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03668297066229429</v>
+        <v>1.482395912379372</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.272467172057468</v>
+        <v>3.929101521217001</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.482395912379372</v>
+        <v>1.888498758134952e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.929101521217001</v>
+        <v>14210811.48500063</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.888498758134952e-14</v>
+        <v>6.006302409986291e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>14210811.48500063</v>
+        <v>3.813769666518902</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.006302409986291e-06</v>
+        <v>0.0001458715706904701</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.813769666518902</v>
+        <v>8.979694903399551</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001458715706904701</v>
+        <v>1.600703596343592</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.979694903399551</v>
+        <v>0.01176234251431714</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.600703596343592</v>
+        <v>2.875186794054435</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01176234251431714</v>
+        <v>0.9103154268238197</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.875186794054435</v>
+        <v>1.925317167267698</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9103154268238197</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.925317167267698</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2178359191773655</v>
       </c>
     </row>
@@ -3130,72 +3106,66 @@
         <v>1.687574037978228e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9577151411179077</v>
+        <v>7.876040030137771e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.565791189058797</v>
+        <v>2.960130955341006e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.876040030137771e-07</v>
+        <v>0.07780654651328676</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.960130955341006e-06</v>
+        <v>0.1645343977553808</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07780654651328676</v>
+        <v>0.03311798161500404</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1645343977553808</v>
+        <v>1.318908428325122</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03311798161500404</v>
+        <v>1.517492506152937</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.258127354127743</v>
+        <v>3.942864765235349</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.517492506152937</v>
+        <v>1.875337513076705e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.942864765235349</v>
+        <v>14447345.45795307</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.875337513076705e-14</v>
+        <v>5.866828273551323e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>14447345.45795307</v>
+        <v>3.914313053990293</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.866828273551323e-06</v>
+        <v>0.0001405815813790924</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.914313053990293</v>
+        <v>8.785088969976053</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001405815813790924</v>
+        <v>1.592112233088177</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.785088969976053</v>
+        <v>0.01084977551395799</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.592112233088177</v>
+        <v>2.919071268923847</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01084977551395799</v>
+        <v>0.9068228004494282</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.919071268923847</v>
+        <v>1.940169917482598</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9068228004494282</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.940169917482598</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.221532961220111</v>
       </c>
     </row>
@@ -3210,72 +3180,66 @@
         <v>1.796061343355009e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.091420181312289</v>
+        <v>8.105517160118259e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8086528365403538</v>
+        <v>2.973439618976387e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.105517160118259e-07</v>
+        <v>0.07522928538598386</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.973439618976387e-06</v>
+        <v>0.1564028955083547</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07522928538598386</v>
+        <v>0.0301172135034382</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1564028955083547</v>
+        <v>1.297171772370442</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0301172135034382</v>
+        <v>1.504612387410924</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.238561610312705</v>
+        <v>3.864703876321897</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.504612387410924</v>
+        <v>1.951959303610063e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.864703876321897</v>
+        <v>14185052.24165709</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.951959303610063e-14</v>
+        <v>5.916476069630181e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>14185052.24165709</v>
+        <v>3.927648715034742</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.916476069630181e-06</v>
+        <v>0.0001328277351578537</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.927648715034742</v>
+        <v>8.263478360852753</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001328277351578537</v>
+        <v>1.519268073723166</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.263478360852753</v>
+        <v>0.009070151806897053</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.519268073723166</v>
+        <v>2.863628362458829</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009070151806897053</v>
+        <v>0.9024078626914601</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.863628362458829</v>
+        <v>1.964294431898843</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9024078626914601</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.964294431898843</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.227777180549241</v>
       </c>
     </row>
@@ -3290,72 +3254,66 @@
         <v>1.915279418765467e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.181947870678845</v>
+        <v>8.365730801529262e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.9349906402036159</v>
+        <v>2.987160256328044e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.365730801529262e-07</v>
+        <v>0.07280711653270207</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.987160256328044e-06</v>
+        <v>0.1478922256203506</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07280711653270207</v>
+        <v>0.02717036547027634</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1478922256203506</v>
+        <v>1.283202263368988</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02717036547027634</v>
+        <v>1.491987785593326</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.226032699104666</v>
+        <v>3.82611830657628</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.491987785593326</v>
+        <v>1.991527992230477e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.82611830657628</v>
+        <v>14081424.01457563</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.991527992230477e-14</v>
+        <v>5.881071507040559e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>14081424.01457563</v>
+        <v>3.948931197686415</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.881071507040559e-06</v>
+        <v>0.0001254510554438822</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.948931197686415</v>
+        <v>7.714583953412292</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001254510554438822</v>
+        <v>1.490853480951151</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.714583953412292</v>
+        <v>0.007466195173826658</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.490853480951151</v>
+        <v>2.910065136316681</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007466195173826658</v>
+        <v>0.8971767703262995</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.910065136316681</v>
+        <v>1.947127500678663</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.8971767703262995</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.947127500678663</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2283349114070375</v>
       </c>
     </row>
@@ -3370,72 +3328,66 @@
         <v>2.039789695535792e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.235553477142053</v>
+        <v>8.617757228686583e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9521172841631849</v>
+        <v>3.001325108694827e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.617757228686583e-07</v>
+        <v>0.07041673016436319</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.001325108694827e-06</v>
+        <v>0.1395550788285182</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07041673016436319</v>
+        <v>0.0244333336668058</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1395550788285182</v>
+        <v>1.270166352381981</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0244333336668058</v>
+        <v>1.479330993750589</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.213010239566723</v>
+        <v>3.692955155112024</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.479330993750589</v>
+        <v>2.137741245360553e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.692955155112024</v>
+        <v>13347598.58920369</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.137741245360553e-14</v>
+        <v>6.210760805228716e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>13347598.58920369</v>
+        <v>3.808565344451424</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.210760805228716e-06</v>
+        <v>0.0001322868985181967</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.808565344451424</v>
+        <v>8.013502668948821</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001322868985181967</v>
+        <v>1.531585001700421</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.013502668948821</v>
+        <v>0.008494965243136915</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.531585001700421</v>
+        <v>2.825791343282796</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008494965243136915</v>
+        <v>0.8924220482818632</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.825791343282796</v>
+        <v>1.948626963273312</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.8924220482818632</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.948626963273312</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.238136910399913</v>
       </c>
     </row>
@@ -3450,72 +3402,66 @@
         <v>2.162497063825996e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.253738564998602</v>
+        <v>8.726544714253315e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8616839057595271</v>
+        <v>3.015807683806532e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.726544714253315e-07</v>
+        <v>0.06725195375101989</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.015807683806532e-06</v>
+        <v>0.1316538704947723</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06725195375101989</v>
+        <v>0.02185603213663144</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1316538704947723</v>
+        <v>1.266871594276996</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02185603213663144</v>
+        <v>1.460603223130764</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.209364955385229</v>
+        <v>3.43393660599549</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.460603223130764</v>
+        <v>2.472399559708241e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.43393660599549</v>
+        <v>11745386.88951126</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.472399559708241e-14</v>
+        <v>7.130599772916068e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>11745386.88951126</v>
+        <v>3.410776886968116</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.130599772916068e-06</v>
+        <v>0.0001510651667862637</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.410776886968116</v>
+        <v>9.195533292588928</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001510651667862637</v>
+        <v>1.528887187072654</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.195533292588928</v>
+        <v>0.01277374307500156</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.528887187072654</v>
+        <v>2.704850063479979</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01277374307500156</v>
+        <v>0.8910426366164351</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.704850063479979</v>
+        <v>1.967397139338283</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.8910426366164351</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.967397139338283</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2531809581012776</v>
       </c>
     </row>
@@ -3530,72 +3476,66 @@
         <v>2.273954741169437e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.236709257581619</v>
+        <v>8.666606981838168e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.6696456743959325</v>
+        <v>3.030295878625761e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.666606981838168e-07</v>
+        <v>0.06328168261759505</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.030295878625761e-06</v>
+        <v>0.1255081721831184</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06328168261759505</v>
+        <v>0.01975726333209615</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1255081721831184</v>
+        <v>1.241032258430974</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01975726333209615</v>
+        <v>1.438375580607973</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.189407930477085</v>
+        <v>3.429624184603155</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.438375580607973</v>
+        <v>2.478621076360486e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.429624184603155</v>
+        <v>12064604.31209684</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.478621076360486e-14</v>
+        <v>6.792962357924524e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>12064604.31209684</v>
+        <v>3.607748906892715</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.792962357924524e-06</v>
+        <v>0.0001508388608685105</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.607748906892715</v>
+        <v>9.523826702165346</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001508388608685105</v>
+        <v>1.539898253961252</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.523826702165346</v>
+        <v>0.01368157868601925</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.539898253961252</v>
+        <v>2.747417975653397</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01368157868601925</v>
+        <v>0.8802133713975466</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.747417975653397</v>
+        <v>1.949558065096987</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.8802133713975466</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.949558065096987</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2586801284916942</v>
       </c>
     </row>
@@ -3610,72 +3550,66 @@
         <v>2.370985558629408e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.194184312309956</v>
+        <v>8.573050328439619e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.4237166954209068</v>
+        <v>3.044573143819914e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.573050328439619e-07</v>
+        <v>0.05975263053273124</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.044573143819914e-06</v>
+        <v>0.1207559917294014</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05975263053273124</v>
+        <v>0.01815269184581459</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1207559917294014</v>
+        <v>1.230099411403376</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01815269184581459</v>
+        <v>1.421270100720211</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.179506399692847</v>
+        <v>3.593171387988434</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.421270100720211</v>
+        <v>2.25812167151365e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.593171387988434</v>
+        <v>14015991.19936819</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.25812167151365e-14</v>
+        <v>5.848149986903177e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>14015991.19936819</v>
+        <v>4.436035071277759</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.848149986903177e-06</v>
+        <v>0.0001273957720118895</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.436035071277759</v>
+        <v>8.260780019888966</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001273957720118895</v>
+        <v>1.598403425269069</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.260780019888966</v>
+        <v>0.008693549464847652</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.598403425269069</v>
+        <v>2.953895496653813</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008693549464847652</v>
+        <v>0.8776348577330956</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.953895496653813</v>
+        <v>1.929515962950201</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.8776348577330956</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.929515962950201</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2473860590687736</v>
       </c>
     </row>
@@ -3690,72 +3624,66 @@
         <v>2.45584592761379e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.136620467922616</v>
+        <v>8.439018352030326e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.1673048559040802</v>
+        <v>3.058561072321939e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.439018352030326e-07</v>
+        <v>0.05588857873067732</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.058561072321939e-06</v>
+        <v>0.1175103299281468</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05588857873067732</v>
+        <v>0.01693161678175572</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1175103299281468</v>
+        <v>1.218062716308548</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01693161678175572</v>
+        <v>1.415709167701119</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.1668927329096</v>
+        <v>3.999557728209118</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.415709167701119</v>
+        <v>2.087137807170965e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.999557728209118</v>
+        <v>15554675.41529979</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.087137807170965e-14</v>
+        <v>5.229702528615997e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>15554675.41529979</v>
+        <v>5.049786663829959</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.229702528615997e-06</v>
+        <v>0.000116206858828543</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.049786663829959</v>
+        <v>7.319914821508262</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000116206858828543</v>
+        <v>1.522499495037119</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.319914821508262</v>
+        <v>0.006226497481860166</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.522499495037119</v>
+        <v>3.052220542654347</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006226497481860166</v>
+        <v>0.8717803088570046</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.052220542654347</v>
+        <v>1.962569216454014</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.8717803088570046</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.962569216454014</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2438829870258317</v>
       </c>
     </row>
@@ -3770,72 +3698,66 @@
         <v>2.523729046103791e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.065536437479329</v>
+        <v>8.284710392125924e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.0898531255697792</v>
+        <v>3.071870021724997e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.284710392125924e-07</v>
+        <v>0.05082183310392576</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.071870021724997e-06</v>
+        <v>0.1174151138889011</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05082183310392576</v>
+        <v>0.01636698414863396</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1174151138889011</v>
+        <v>1.235975999692697</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01636698414863396</v>
+        <v>1.43117452505366</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.181004309007987</v>
+        <v>3.957589084635045</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.43117452505366</v>
+        <v>2.131639038732409e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.957589084635045</v>
+        <v>14834971.08311318</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.131639038732409e-14</v>
+        <v>5.657669147125771e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>14834971.08311318</v>
+        <v>4.691233754780542</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.657669147125771e-06</v>
+        <v>0.0001211512471443251</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.691233754780542</v>
+        <v>7.521695436188605</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001211512471443251</v>
+        <v>1.53367614252769</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.521695436188605</v>
+        <v>0.006854241114059069</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.53367614252769</v>
+        <v>2.961089970776202</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006854241114059069</v>
+        <v>0.8856649970003381</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.961089970776202</v>
+        <v>1.939141833897959</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.8856649970003381</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.939141833897959</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2621286100580704</v>
       </c>
     </row>
@@ -3850,72 +3772,66 @@
         <v>2.571685381307883e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9861184747261571</v>
+        <v>8.152404252036299e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3279450281343457</v>
+        <v>3.084154749384901e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.152404252036299e-07</v>
+        <v>0.04562172232073618</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.084154749384901e-06</v>
+        <v>0.1193349770070802</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04562172232073618</v>
+        <v>0.01631976604756186</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1193349770070802</v>
+        <v>1.235139107403999</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01631976604756186</v>
+        <v>1.486518665205409</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.177660215476819</v>
+        <v>4.006381062806434</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.486518665205409</v>
+        <v>2.080034582520446e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.006381062806434</v>
+        <v>15110123.58233437</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.080034582520446e-14</v>
+        <v>5.541114782131431e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>15110123.58233437</v>
+        <v>4.749048318577288</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.541114782131431e-06</v>
+        <v>0.0001261512597190666</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4.749048318577288</v>
+        <v>7.999003255593465</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001261512597190666</v>
+        <v>1.604900727925264</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.999003255593465</v>
+        <v>0.008071668898351423</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.604900727925264</v>
+        <v>3.015124629619781</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008071668898351423</v>
+        <v>0.8868288791224078</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.015124629619781</v>
+        <v>1.95174301188648</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.8868288791224078</v>
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.95174301188648</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2875110332367546</v>
       </c>
     </row>
@@ -3930,72 +3846,66 @@
         <v>2.602011895176311e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9059092115744325</v>
+        <v>8.152404252036299e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.5292969217579691</v>
+        <v>3.095384968521883e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.152404252036299e-07</v>
+        <v>0.04133789244377031</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.095384968521883e-06</v>
+        <v>0.1215328357361391</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04133789244377031</v>
+        <v>0.01647731415747263</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1215328357361391</v>
+        <v>1.260022936083864</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01647731415747263</v>
+        <v>1.440100792110151</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.197439093940091</v>
+        <v>3.979376740981248</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.440100792110151</v>
+        <v>2.108360882545072e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.979376740981248</v>
+        <v>14711427.58657612</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.108360882545072e-14</v>
+        <v>5.780359901628734e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>14711427.58657612</v>
+        <v>4.563043266491118</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.780359901628734e-06</v>
+        <v>0.0001179109486978061</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.563043266491118</v>
+        <v>7.5573932985684</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001179109486978061</v>
+        <v>1.663430007273653</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.5573932985684</v>
+        <v>0.006734388736068903</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.663430007273653</v>
+        <v>3.145029394432904</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006734388736068903</v>
+        <v>0.8948032141266926</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.145029394432904</v>
+        <v>1.957750501330982</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.8948032141266926</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.957750501330982</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3092652774369545</v>
       </c>
     </row>
@@ -4010,72 +3920,66 @@
         <v>2.618226525365958e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8299702187506967</v>
+        <v>8.152404252036299e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6904360068147266</v>
+        <v>3.105750150630447e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.152404252036299e-07</v>
+        <v>0.03819888488708008</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.105750150630447e-06</v>
+        <v>0.1232672933058798</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03819888488708008</v>
+        <v>0.01665301290004936</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1232672933058798</v>
+        <v>1.26204847717793</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01665301290004936</v>
+        <v>1.36047819721158</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.200238967955089</v>
+        <v>4.285931200988602</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.36047819721158</v>
+        <v>1.817542913598679e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.285931200988602</v>
+        <v>16543112.07977733</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.817542913598679e-14</v>
+        <v>5.018130079635101e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>16543112.07977733</v>
+        <v>4.974152522239253</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.018130079635101e-06</v>
+        <v>9.430197433177514e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.974152522239253</v>
+        <v>6.004747646776614</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>9.430197433177514e-05</v>
+        <v>1.792961084759825</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.004747646776614</v>
+        <v>0.003400245751098118</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.792961084759825</v>
+        <v>3.433999738241284</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.003400245751098118</v>
+        <v>0.8991505212006199</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.433999738241284</v>
+        <v>1.955363393484149</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.8991505212006199</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.955363393484149</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.29065687387363</v>
       </c>
     </row>
@@ -4090,72 +3994,66 @@
         <v>2.624282376677419e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7595332588295691</v>
+        <v>8.152404252036299e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8173765048712758</v>
+        <v>3.115453779283395e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.152404252036299e-07</v>
+        <v>0.03592657108735117</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.115453779283395e-06</v>
+        <v>0.1243912529349075</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03592657108735117</v>
+        <v>0.01676356825033417</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1243912529349075</v>
+        <v>1.303609887955528</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01676356825033417</v>
+        <v>1.573156454258966</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.234121324819382</v>
+        <v>3.456591296342616</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.573156454258966</v>
+        <v>1.689509992936854e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.456591296342616</v>
+        <v>16204843.59763268</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.689509992936854e-14</v>
+        <v>5.432134599276643e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>16204843.59763268</v>
+        <v>4.436601813169031</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.432134599276643e-06</v>
+        <v>9.144631903730957e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.436601813169031</v>
+        <v>5.988485542523722</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.144631903730957e-05</v>
+        <v>1.312280885559625</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>5.988485542523722</v>
+        <v>0.003279444152522853</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.312280885559625</v>
+        <v>3.407418425024462</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.003279444152522853</v>
+        <v>0.9105771942922367</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.407418425024462</v>
+        <v>1.94024528136967</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9105771942922367</v>
+        <v>9</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.94024528136967</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2515556352843231</v>
       </c>
     </row>
@@ -4170,72 +4068,66 @@
         <v>2.624418360978885e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6930430991306379</v>
+        <v>8.152404252036299e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9195695183224109</v>
+        <v>3.124663345531337e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.152404252036299e-07</v>
+        <v>0.03434710433259724</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.124663345531337e-06</v>
+        <v>0.1249096800388387</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03434710433259724</v>
+        <v>0.01678206260943304</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1249096800388387</v>
+        <v>1.326390881841424</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01678206260943304</v>
+        <v>1.406161782623896</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.2536627008013</v>
+        <v>3.644636957494918</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.406161782623896</v>
+        <v>1.820573068160387e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.644636957494918</v>
+        <v>14659121.87747468</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.820573068160387e-14</v>
+        <v>6.16213745403463e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>14659121.87747468</v>
+        <v>3.912226812113984</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.16213745403463e-06</v>
+        <v>0.0001059084824596583</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.912226812113984</v>
+        <v>7.65271477909242</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001059084824596583</v>
+        <v>1.298672329530004</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.65271477909242</v>
+        <v>0.006202428972742111</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.298672329530004</v>
+        <v>3.178941382862107</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006202428972742111</v>
+        <v>0.9146634087353328</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.178941382862107</v>
+        <v>1.946170782505931</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9146634087353328</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.946170782505931</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.220676892798683</v>
       </c>
     </row>
@@ -4612,7 +4504,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.433703412820463</v>
+        <v>1.368139830518436</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.55513097658375</v>
@@ -4701,7 +4593,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.453919566534508</v>
+        <v>1.381923619709573</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.434461999025215</v>
@@ -4790,7 +4682,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465065665112955</v>
+        <v>1.392839819057805</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.325383925924764</v>
@@ -4879,7 +4771,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.467890746624783</v>
+        <v>1.400054213370527</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.459311011511903</v>
@@ -4968,7 +4860,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.449628694218493</v>
+        <v>1.39159641197855</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.410975683885691</v>
@@ -5057,7 +4949,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452379764898613</v>
+        <v>1.387394059847548</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.410448556935188</v>
@@ -5146,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.469203637920052</v>
+        <v>1.399103056206811</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.189971345104078</v>
@@ -5235,7 +5127,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536341123244914</v>
+        <v>1.45207228010713</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.255624414428173</v>
@@ -5324,7 +5216,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546296640397614</v>
+        <v>1.462178011339671</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.288235646717668</v>
@@ -5413,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556646201288174</v>
+        <v>1.471931724158261</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.370191012495126</v>
@@ -5502,7 +5394,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567937278417239</v>
+        <v>1.48280214752483</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.443950651018671</v>
@@ -5591,7 +5483,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.585439349463097</v>
+        <v>1.506794788717189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.521233796281092</v>
@@ -5680,7 +5572,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565738184584857</v>
+        <v>1.489706529327494</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.540982149945292</v>
@@ -5769,7 +5661,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588322180625474</v>
+        <v>1.501629519270682</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.543483193737086</v>
@@ -5858,7 +5750,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.573405313997124</v>
+        <v>1.492079984087478</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.542847613055219</v>
@@ -5947,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554157202451839</v>
+        <v>1.478230255308813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513589901734497</v>
@@ -6036,7 +5928,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559073436568738</v>
+        <v>1.488029235342675</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.519323854718389</v>
@@ -6125,7 +6017,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562897977026561</v>
+        <v>1.488139487827572</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.622824189959881</v>
@@ -6214,7 +6106,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557683285070942</v>
+        <v>1.483957167916995</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.556122559610721</v>
@@ -6303,7 +6195,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.582839098687431</v>
+        <v>1.510418473389588</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.79805139901245</v>
@@ -6392,7 +6284,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587445343042047</v>
+        <v>1.518097218873404</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.712345886322557</v>
@@ -6481,7 +6373,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.591501276845924</v>
+        <v>1.519380640767196</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.684554070071546</v>
@@ -6570,7 +6462,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594166667064452</v>
+        <v>1.519220446838483</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.624810819141835</v>
@@ -6659,7 +6551,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591913908193754</v>
+        <v>1.519143222600528</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.676833837104764</v>
@@ -6748,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594197228297226</v>
+        <v>1.523987839062875</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.661446204136324</v>
@@ -6837,7 +6729,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59428775435177</v>
+        <v>1.525861749839684</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.546280952462173</v>
@@ -6926,7 +6818,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604702465418105</v>
+        <v>1.51735054380646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.451941937030457</v>
@@ -7015,7 +6907,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614087794677649</v>
+        <v>1.529835806752482</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.441584368223475</v>
@@ -7104,7 +6996,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.639954909023904</v>
+        <v>1.548023857547205</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.568937326598443</v>
@@ -7193,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65247268142044</v>
+        <v>1.561752092034796</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.537094640148711</v>
@@ -7282,7 +7174,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680875821809618</v>
+        <v>1.584926304848095</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.594438251248894</v>
@@ -7371,7 +7263,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700533064406772</v>
+        <v>1.589907611314345</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.264591893724857</v>
@@ -7460,7 +7352,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700713188794173</v>
+        <v>1.594833520909099</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.58075656066973</v>
@@ -7549,7 +7441,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.708279806326858</v>
+        <v>1.59152898919479</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.401022391478545</v>
@@ -7638,7 +7530,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669728209201278</v>
+        <v>1.562007625544859</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.459109783109519</v>
@@ -7727,7 +7619,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.652504187996561</v>
+        <v>1.553756816019309</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.378825240901062</v>
@@ -7816,7 +7708,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651748816493216</v>
+        <v>1.550418434516272</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.437869062767037</v>
@@ -7905,7 +7797,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.654290282987923</v>
+        <v>1.555445361409342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.405960368736818</v>
@@ -7994,7 +7886,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61196044335869</v>
+        <v>1.522495158741727</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.381705731432527</v>
@@ -8083,7 +7975,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.601991646535648</v>
+        <v>1.517819855375709</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.431894805346072</v>
@@ -8172,7 +8064,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.599477429010263</v>
+        <v>1.521680452520428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.496872940181722</v>
@@ -8261,7 +8153,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603396877874072</v>
+        <v>1.535315639455618</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.231520886073925</v>
@@ -8350,7 +8242,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.600329355542798</v>
+        <v>1.536343403577294</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.418545152240086</v>
@@ -8439,7 +8331,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577637874496389</v>
+        <v>1.523414305172162</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.401303525021425</v>
@@ -8528,7 +8420,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.565755644566183</v>
+        <v>1.518444565046551</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.398359879665756</v>
@@ -8617,7 +8509,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528518950955155</v>
+        <v>1.482176436710919</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.41581836636272</v>
@@ -8706,7 +8598,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.510793001773844</v>
+        <v>1.460589095847147</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.564447285244319</v>
@@ -8795,7 +8687,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.498839709586482</v>
+        <v>1.450806750170188</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.460704941712483</v>
@@ -8884,7 +8776,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.478313020190278</v>
+        <v>1.434700771493689</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.407914971238348</v>
@@ -8973,7 +8865,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494950943224168</v>
+        <v>1.449980387855178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.401083266615575</v>
@@ -9062,7 +8954,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50756181287787</v>
+        <v>1.465028737858265</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.684665908529257</v>
@@ -9151,7 +9043,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.506029121076728</v>
+        <v>1.468019242631284</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.61663315857736</v>
@@ -9240,7 +9132,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.489028776743911</v>
+        <v>1.451362507032436</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.512974196020592</v>
@@ -9329,7 +9221,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.501149388752935</v>
+        <v>1.464352157696487</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.67104850162112</v>
@@ -9418,7 +9310,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.497544069658357</v>
+        <v>1.460772881521385</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.398973492990481</v>
@@ -9507,7 +9399,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.477305426819729</v>
+        <v>1.441769409572547</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.488154285766019</v>
@@ -9596,7 +9488,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.474664447160949</v>
+        <v>1.438462338948676</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.500115048363295</v>
@@ -9685,7 +9577,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.467957979381739</v>
+        <v>1.427779384750259</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.361221885446362</v>
@@ -9774,7 +9666,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.459103609387696</v>
+        <v>1.420027247328338</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.426807052065976</v>
@@ -9863,7 +9755,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.460199233842097</v>
+        <v>1.42196536493462</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.506540988094419</v>
@@ -9952,7 +9844,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.481160826210249</v>
+        <v>1.442000648668064</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.598177341846601</v>
@@ -10238,7 +10130,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.393507172225987</v>
+        <v>1.35535180440907</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.158318514195748</v>
@@ -10327,7 +10219,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.393529020963505</v>
+        <v>1.354780777336899</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.135667740386261</v>
@@ -10416,7 +10308,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.440948865801226</v>
+        <v>1.390020276963921</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.955685770902684</v>
@@ -10505,7 +10397,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465131499736818</v>
+        <v>1.415664395981242</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.627292017489816</v>
@@ -10594,7 +10486,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460372193422001</v>
+        <v>1.416610710228098</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.943426537353517</v>
@@ -10683,7 +10575,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.47607104153773</v>
+        <v>1.429426727324461</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.977988003221225</v>
@@ -10772,7 +10664,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.487055737687943</v>
+        <v>1.446091216212636</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.55371754741109</v>
@@ -10861,7 +10753,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.516940117235303</v>
+        <v>1.478056541405201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.827005821047551</v>
@@ -10950,7 +10842,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50996544380919</v>
+        <v>1.476805507570343</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.019044680690332</v>
@@ -11039,7 +10931,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510761255033269</v>
+        <v>1.482111814477574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.895946547603892</v>
@@ -11128,7 +11020,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.516035393234978</v>
+        <v>1.485528502182498</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.930472643020932</v>
@@ -11217,7 +11109,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490688315394144</v>
+        <v>1.46965566108746</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.796595872238676</v>
@@ -11306,7 +11198,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.373972973194502</v>
+        <v>1.374348316054844</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.776260458707979</v>
@@ -11395,7 +11287,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.378679240908802</v>
+        <v>1.375694754536443</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.781017940894363</v>
@@ -11484,7 +11376,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.380562787912224</v>
+        <v>1.378628820084693</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.807459752813545</v>
@@ -11573,7 +11465,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.375330129119885</v>
+        <v>1.377445462080198</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.804604127362377</v>
@@ -11662,7 +11554,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.377504690442831</v>
+        <v>1.380155563147844</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.795871007331618</v>
@@ -11751,7 +11643,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.389846371206841</v>
+        <v>1.389069066475381</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.78816209368987</v>
@@ -11840,7 +11732,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.389813798178893</v>
+        <v>1.38584879455784</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.81115355372285</v>
@@ -11929,7 +11821,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.398346847251128</v>
+        <v>1.395266245742854</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.800016718322689</v>
@@ -12018,7 +11910,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.394818647405329</v>
+        <v>1.39639684425028</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.792721183991255</v>
@@ -12107,7 +11999,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.388312423417006</v>
+        <v>1.38499060436581</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.7389738595034</v>
@@ -12196,7 +12088,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.38935522677197</v>
+        <v>1.386558963380445</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.766832948893914</v>
@@ -12285,7 +12177,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393901038368836</v>
+        <v>1.389486004029465</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.76341737126319</v>
@@ -12374,7 +12266,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.392908374121095</v>
+        <v>1.386958771047859</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.774349598188605</v>
@@ -12463,7 +12355,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.387313821024491</v>
+        <v>1.384211917611584</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.776418834802906</v>
@@ -12552,7 +12444,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.47463791513646</v>
+        <v>1.441386297095283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.775201645266369</v>
@@ -12641,7 +12533,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562838818527225</v>
+        <v>1.518325362044702</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.396179510334107</v>
@@ -12730,7 +12622,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574275543655874</v>
+        <v>1.525757341189671</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.889890169603666</v>
@@ -12819,7 +12711,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.583441806146969</v>
+        <v>1.528329659123063</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.381128414211923</v>
@@ -12908,7 +12800,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602341672543867</v>
+        <v>1.543043536579268</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.782196313765963</v>
@@ -12997,7 +12889,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.612797451472858</v>
+        <v>1.550263546559101</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.475076171209099</v>
@@ -13086,7 +12978,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615651340071484</v>
+        <v>1.557644295214071</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.882258335015932</v>
@@ -13175,7 +13067,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.611342270567548</v>
+        <v>1.555948250372911</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.423399223001862</v>
@@ -13264,7 +13156,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.574580018106539</v>
+        <v>1.525946247017133</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.718458267902639</v>
@@ -13353,7 +13245,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566544877339236</v>
+        <v>1.516864009891794</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.528339608287746</v>
@@ -13442,7 +13334,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.561267330141896</v>
+        <v>1.51171326674068</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.657041581942674</v>
@@ -13531,7 +13423,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.569588855969259</v>
+        <v>1.521892306930315</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.665110194698934</v>
@@ -13620,7 +13512,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.54652978238872</v>
+        <v>1.509343929040869</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.665544702124961</v>
@@ -13709,7 +13601,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.548818111402608</v>
+        <v>1.511839588817249</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.576883563891942</v>
@@ -13798,7 +13690,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.555302257410439</v>
+        <v>1.52314271145894</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.616715353142183</v>
@@ -13887,7 +13779,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.561603205203704</v>
+        <v>1.537254322306371</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.644074045734269</v>
@@ -13976,7 +13868,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.575283030535029</v>
+        <v>1.548544221376819</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.665438176515405</v>
@@ -14065,7 +13957,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.579455235434513</v>
+        <v>1.550105211073037</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.548990693150989</v>
@@ -14154,7 +14046,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557878277267875</v>
+        <v>1.545978995210685</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.684576803716813</v>
@@ -14243,7 +14135,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.547667943128243</v>
+        <v>1.538965721617607</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.565663530185054</v>
@@ -14332,7 +14224,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.543262757693135</v>
+        <v>1.539361969095183</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.95650538560543</v>
@@ -14421,7 +14313,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.551967332323432</v>
+        <v>1.551319866905093</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.586433381451773</v>
@@ -14510,7 +14402,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536754522776694</v>
+        <v>1.549014856991197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.638407454662738</v>
@@ -14599,7 +14491,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.560057711260904</v>
+        <v>1.572859015148844</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.740363926059891</v>
@@ -14688,7 +14580,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563374984026524</v>
+        <v>1.587473807766061</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.262807811125547</v>
@@ -14777,7 +14669,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.561726547605125</v>
+        <v>1.591143317891642</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.168162677465606</v>
@@ -14866,7 +14758,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559296090238551</v>
+        <v>1.589176118661836</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.098600017603235</v>
@@ -14955,7 +14847,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.57438834476253</v>
+        <v>1.601141684597473</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.377601633913621</v>
@@ -15044,7 +14936,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.58165888202267</v>
+        <v>1.611166482493427</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.372399638934329</v>
@@ -15133,7 +15025,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570384902923709</v>
+        <v>1.603705244783968</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.140514991441543</v>
@@ -15222,7 +15114,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.56896228882321</v>
+        <v>1.605949957604468</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.052141723697022</v>
@@ -15311,7 +15203,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572468224975047</v>
+        <v>1.614757945515619</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.167049566444808</v>
@@ -15400,7 +15292,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.569399945256533</v>
+        <v>1.614188325394179</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.823097783934591</v>
@@ -15489,7 +15381,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.565859275551378</v>
+        <v>1.606727458074708</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.264756370324505</v>
@@ -15578,7 +15470,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588138564562289</v>
+        <v>1.627796258790872</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.236496138742252</v>
@@ -15864,7 +15756,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.645752576640609</v>
+        <v>1.505798753037254</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.891598887204426</v>
@@ -15953,7 +15845,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.649152007532947</v>
+        <v>1.507014583103357</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.678174228370763</v>
@@ -16042,7 +15934,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.654359833714137</v>
+        <v>1.5133843580332</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.669960862653029</v>
@@ -16131,7 +16023,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.674764631809691</v>
+        <v>1.538420631797977</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.271816525128253</v>
@@ -16220,7 +16112,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675012067728951</v>
+        <v>1.553177622308636</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.08220920530869</v>
@@ -16309,7 +16201,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675376342457222</v>
+        <v>1.547437426365932</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.453854711916488</v>
@@ -16398,7 +16290,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672369451004981</v>
+        <v>1.547520969739436</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.427860654019162</v>
@@ -16487,7 +16379,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671010727916672</v>
+        <v>1.552176541297351</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.208848016588943</v>
@@ -16576,7 +16468,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.668829010583071</v>
+        <v>1.556153081642217</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.250136447125526</v>
@@ -16665,7 +16557,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.68404923556438</v>
+        <v>1.568947895939862</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.368224231599355</v>
@@ -16754,7 +16646,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.69306883477452</v>
+        <v>1.584820897604457</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.365861351537982</v>
@@ -16843,7 +16735,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6895342263882</v>
+        <v>1.591250676295905</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.476958679520603</v>
@@ -16932,7 +16824,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.642169222602887</v>
+        <v>1.576520687014558</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.568335536678399</v>
@@ -17021,7 +16913,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.654136783406055</v>
+        <v>1.583912405081636</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.506777152505735</v>
@@ -17110,7 +17002,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.662381272269427</v>
+        <v>1.594818459759343</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.605026401838171</v>
@@ -17199,7 +17091,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.660579339486564</v>
+        <v>1.595166318638559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.641392988622751</v>
@@ -17288,7 +17180,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.640636249172633</v>
+        <v>1.579756551712371</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.604086863099147</v>
@@ -17377,7 +17269,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652915168612956</v>
+        <v>1.593518637606017</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.564177056790986</v>
@@ -17466,7 +17358,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.652912478232089</v>
+        <v>1.589055948905196</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.4009609253148</v>
@@ -17555,7 +17447,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661649818090209</v>
+        <v>1.59825261974448</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.615017331664752</v>
@@ -17644,7 +17536,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666011774028141</v>
+        <v>1.6069974277933</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.556250868185048</v>
@@ -17733,7 +17625,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.666591408840441</v>
+        <v>1.605203145030851</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.476106725224364</v>
@@ -17822,7 +17714,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.662883479878539</v>
+        <v>1.600146598566808</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.587860217589373</v>
@@ -17911,7 +17803,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658278672454385</v>
+        <v>1.597683193577135</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.613665735896339</v>
@@ -18000,7 +17892,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648663757861966</v>
+        <v>1.592551243648986</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.532117003593024</v>
@@ -18089,7 +17981,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639680259885945</v>
+        <v>1.577833306225044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.583695893255045</v>
@@ -18178,7 +18070,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662758302424324</v>
+        <v>1.576908008870376</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.516142547359554</v>
@@ -18267,7 +18159,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68426511078084</v>
+        <v>1.585125599123463</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.297156270995549</v>
@@ -18356,7 +18248,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.683178193956576</v>
+        <v>1.589761731494232</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.346566156342156</v>
@@ -18445,7 +18337,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683422508809064</v>
+        <v>1.591920388905766</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.100601722174766</v>
@@ -18534,7 +18426,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.674734457319558</v>
+        <v>1.589907788545815</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.434289584225815</v>
@@ -18623,7 +18515,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687717400648774</v>
+        <v>1.599963253715098</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.019169706655429</v>
@@ -18712,7 +18604,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.680910563126145</v>
+        <v>1.592318653523206</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.749723324429327</v>
@@ -18801,7 +18693,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686754120793847</v>
+        <v>1.586998539179693</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.53109274714297</v>
@@ -18890,7 +18782,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.67583238799932</v>
+        <v>1.577669798405976</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.723538506616135</v>
@@ -18979,7 +18871,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66279862524306</v>
+        <v>1.567201400135842</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.640172623617982</v>
@@ -19068,7 +18960,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.655551697701954</v>
+        <v>1.560859664929416</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.720076908193418</v>
@@ -19157,7 +19049,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.668218824648321</v>
+        <v>1.573940712855229</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.394005613683951</v>
@@ -19246,7 +19138,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665610143691611</v>
+        <v>1.575039740750958</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.711083861078334</v>
@@ -19335,7 +19227,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.667748818342653</v>
+        <v>1.574733917673029</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.6546697678892</v>
@@ -19424,7 +19316,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68367371201758</v>
+        <v>1.597097070889342</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.367365341255926</v>
@@ -19513,7 +19405,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690718327846557</v>
+        <v>1.606188842320191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.224696933784487</v>
@@ -19602,7 +19494,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.692923680293129</v>
+        <v>1.596984708044392</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.977197261479791</v>
@@ -19691,7 +19583,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.682002806735858</v>
+        <v>1.587242955223523</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.880128117913561</v>
@@ -19780,7 +19672,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.673412434758353</v>
+        <v>1.584217940183838</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.955779814449239</v>
@@ -19869,7 +19761,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676342952554793</v>
+        <v>1.579969424282973</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.590784474543451</v>
@@ -19958,7 +19850,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.67558263317983</v>
+        <v>1.576729668410374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.821467367955496</v>
@@ -20047,7 +19939,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675114809891346</v>
+        <v>1.579412917102049</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.455639812701083</v>
@@ -20136,7 +20028,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.655909995109593</v>
+        <v>1.577698650451985</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.820922866663798</v>
@@ -20225,7 +20117,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.668020563679659</v>
+        <v>1.586222082318547</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.880926290499668</v>
@@ -20314,7 +20206,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.675679821561086</v>
+        <v>1.602982686637995</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.434793073853582</v>
@@ -20403,7 +20295,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.680650431019921</v>
+        <v>1.605909529233712</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.581868261451411</v>
@@ -20492,7 +20384,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670358685721641</v>
+        <v>1.599369467698306</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.928789234960775</v>
@@ -20581,7 +20473,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674266876474781</v>
+        <v>1.602823135260869</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.824036972285089</v>
@@ -20670,7 +20562,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.683454743208012</v>
+        <v>1.61063902319829</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.723654393944255</v>
@@ -20759,7 +20651,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.671722186554073</v>
+        <v>1.600042432599051</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.782257659458344</v>
@@ -20848,7 +20740,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.668227370904934</v>
+        <v>1.597693962930394</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.462043731019691</v>
@@ -20937,7 +20829,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.671375813687759</v>
+        <v>1.609458275047912</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.835774538396868</v>
@@ -21026,7 +20918,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.67208465746638</v>
+        <v>1.611879277478828</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.736271393027152</v>
@@ -21115,7 +21007,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.677912597511589</v>
+        <v>1.613662051185927</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.835098243190568</v>
@@ -21204,7 +21096,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.680887633696246</v>
+        <v>1.627073948477972</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.242428047864333</v>
@@ -21490,7 +21382,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.687623560094667</v>
+        <v>1.569388363993009</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.953040749168891</v>
@@ -21579,7 +21471,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.686195312037163</v>
+        <v>1.57602762322794</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.928237164297091</v>
@@ -21668,7 +21560,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68666573158006</v>
+        <v>1.578125283768598</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.380423614058442</v>
@@ -21757,7 +21649,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.705959877854213</v>
+        <v>1.593304016348219</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.438139776315973</v>
@@ -21846,7 +21738,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.708054708755764</v>
+        <v>1.602986761314983</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.239920403121051</v>
@@ -21935,7 +21827,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.715073380838413</v>
+        <v>1.609469124672456</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.16095180252576</v>
@@ -22024,7 +21916,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.716504709612057</v>
+        <v>1.60978021069104</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.997513630761514</v>
@@ -22113,7 +22005,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721589348753092</v>
+        <v>1.609073552899021</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.116927828012247</v>
@@ -22202,7 +22094,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72111333853866</v>
+        <v>1.617365645614666</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.299588586328382</v>
@@ -22291,7 +22183,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.734510896966444</v>
+        <v>1.63676961887731</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.40878893491132</v>
@@ -22380,7 +22272,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.749193565591779</v>
+        <v>1.649475763189103</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.382479723826315</v>
@@ -22469,7 +22361,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.73974946703657</v>
+        <v>1.644677620676294</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.654020434442976</v>
@@ -22558,7 +22450,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669665315709019</v>
+        <v>1.605949346616032</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.524238714738694</v>
@@ -22647,7 +22539,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.671963627670918</v>
+        <v>1.621324136649347</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.570017795303943</v>
@@ -22736,7 +22628,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678390546071399</v>
+        <v>1.627175564133566</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.529894278682213</v>
@@ -22825,7 +22717,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.67726579960406</v>
+        <v>1.624838710487742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.64643366021784</v>
@@ -22914,7 +22806,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662757656818674</v>
+        <v>1.612598865575495</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.631984842031261</v>
@@ -23003,7 +22895,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.674206647773426</v>
+        <v>1.615092487064329</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.677256975424812</v>
@@ -23092,7 +22984,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.668807618222849</v>
+        <v>1.614579692417638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.35572718905752</v>
@@ -23181,7 +23073,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666347067547309</v>
+        <v>1.6075168112765</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.580153805353878</v>
@@ -23270,7 +23162,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658642891021392</v>
+        <v>1.599872210482002</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.502030034899797</v>
@@ -23359,7 +23251,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.658718457852034</v>
+        <v>1.595524166333687</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.501961000242191</v>
@@ -23448,7 +23340,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647375417908341</v>
+        <v>1.586990609093512</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.542418629620892</v>
@@ -23537,7 +23429,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65044381231905</v>
+        <v>1.58630799440596</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.569512709182938</v>
@@ -23626,7 +23518,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.640026012661815</v>
+        <v>1.577132541928601</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.501361895869807</v>
@@ -23715,7 +23607,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63960780377422</v>
+        <v>1.576804697229372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.531997315301409</v>
@@ -23804,7 +23696,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662792318874172</v>
+        <v>1.57807756315239</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.286072776706882</v>
@@ -23893,7 +23785,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.711468894178955</v>
+        <v>1.604319331331594</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.354232763227249</v>
@@ -23982,7 +23874,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.711019920194276</v>
+        <v>1.597558854453216</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.339100949189192</v>
@@ -24071,7 +23963,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717517724628449</v>
+        <v>1.603385620050377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.961357246853125</v>
@@ -24160,7 +24052,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.714649395325679</v>
+        <v>1.59739184481281</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.086588053581411</v>
@@ -24249,7 +24141,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.717187556660949</v>
+        <v>1.59641183710849</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.181813756819076</v>
@@ -24338,7 +24230,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.724665171826282</v>
+        <v>1.606988302422089</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.599463460836172</v>
@@ -24427,7 +24319,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728738750914735</v>
+        <v>1.608257868668709</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.683939597938053</v>
@@ -24516,7 +24408,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733726096133011</v>
+        <v>1.616191923999528</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.600376540999297</v>
@@ -24605,7 +24497,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72081562644838</v>
+        <v>1.606968529560385</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.692517918567959</v>
@@ -24694,7 +24586,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.707611879893203</v>
+        <v>1.597201901510804</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.784082130936285</v>
@@ -24783,7 +24675,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.725575307529259</v>
+        <v>1.60964588794998</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.43133434785634</v>
@@ -24872,7 +24764,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728355897575319</v>
+        <v>1.61428680969704</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.477724984055376</v>
@@ -24961,7 +24853,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.729981554582293</v>
+        <v>1.60772205209766</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.487816072394972</v>
@@ -25050,7 +24942,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.731795896340053</v>
+        <v>1.605995667039516</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.259161100190983</v>
@@ -25139,7 +25031,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.745772500025126</v>
+        <v>1.626371276639934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.43440449436762</v>
@@ -25228,7 +25120,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.742874143393458</v>
+        <v>1.623553102157701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.471649149842383</v>
@@ -25317,7 +25209,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740486508851969</v>
+        <v>1.622221172204185</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.274939407611898</v>
@@ -25406,7 +25298,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.739866831567827</v>
+        <v>1.628562623936615</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.8610476340527</v>
@@ -25495,7 +25387,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.741320534134553</v>
+        <v>1.631285531601701</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.824149919432745</v>
@@ -25584,7 +25476,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.744586918302443</v>
+        <v>1.630888577477631</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.808516636861417</v>
@@ -25673,7 +25565,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.744731552088901</v>
+        <v>1.631895411298708</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.856028171551527</v>
@@ -25762,7 +25654,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.745477648455078</v>
+        <v>1.635432233957829</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.06950380905699</v>
@@ -25851,7 +25743,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.748507221728925</v>
+        <v>1.64312032163539</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.648223548461112</v>
@@ -25940,7 +25832,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.758178282315863</v>
+        <v>1.658217183446728</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.791767816959097</v>
@@ -26029,7 +25921,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.772886828931255</v>
+        <v>1.676879475365164</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.082953452619568</v>
@@ -26118,7 +26010,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.7769490700818</v>
+        <v>1.689991173997681</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.676180160302875</v>
@@ -26207,7 +26099,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.776151145457731</v>
+        <v>1.694360856091356</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.043325388454683</v>
@@ -26296,7 +26188,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.764679650696748</v>
+        <v>1.692023406660145</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.990741614502809</v>
@@ -26385,7 +26277,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.75873634927533</v>
+        <v>1.687369789031785</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.12410624342135</v>
@@ -26474,7 +26366,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.74818370671235</v>
+        <v>1.680472947553213</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.041050316873826</v>
@@ -26563,7 +26455,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.751257625213189</v>
+        <v>1.682804049778402</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.546081362030138</v>
@@ -26652,7 +26544,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.745397212654924</v>
+        <v>1.681809100476787</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.618511759383616</v>
@@ -26741,7 +26633,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.74280205563624</v>
+        <v>1.678331286370992</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.841369571001571</v>
@@ -26830,7 +26722,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.744695266063023</v>
+        <v>1.686785463374588</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.34381522357475</v>
@@ -27116,7 +27008,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.543654938501194</v>
+        <v>1.505825988657347</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.956846731526684</v>
@@ -27205,7 +27097,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527040575001292</v>
+        <v>1.490731680643042</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.827136629160638</v>
@@ -27294,7 +27186,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.520667101479988</v>
+        <v>1.483478941729387</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.58036427278208</v>
@@ -27383,7 +27275,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521715831364003</v>
+        <v>1.486661954902709</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.650865892708486</v>
@@ -27472,7 +27364,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516751143432067</v>
+        <v>1.472484785252483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.670102459193635</v>
@@ -27561,7 +27453,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519427301296088</v>
+        <v>1.465381383418557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.824727527708045</v>
@@ -27650,7 +27542,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.535030461624162</v>
+        <v>1.486790971282646</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.004860293251443</v>
@@ -27739,7 +27631,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.517323676278639</v>
+        <v>1.476401191660512</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.448339477386663</v>
@@ -27828,7 +27720,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.521305301529</v>
+        <v>1.483334329971718</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.773342332770191</v>
@@ -27917,7 +27809,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525698567495615</v>
+        <v>1.491044998686366</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.785981431472515</v>
@@ -28006,7 +27898,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.53879493987882</v>
+        <v>1.507335192201649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.877086391332638</v>
@@ -28095,7 +27987,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533200084446226</v>
+        <v>1.506617361660148</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.46359218705787</v>
@@ -28184,7 +28076,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.475689814280893</v>
+        <v>1.461896879676748</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.255020861199339</v>
@@ -28273,7 +28165,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.477696150135533</v>
+        <v>1.467150393502217</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.207504671859311</v>
@@ -28362,7 +28254,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479968856690608</v>
+        <v>1.470933550640436</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.316469939152308</v>
@@ -28451,7 +28343,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.493755643621944</v>
+        <v>1.485141060770585</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.296391115412075</v>
@@ -28540,7 +28432,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.498536169509369</v>
+        <v>1.486301727523335</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.066697990829336</v>
@@ -28629,7 +28521,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.519676582679385</v>
+        <v>1.499590917453512</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.202141332269842</v>
@@ -28718,7 +28610,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.525789066471759</v>
+        <v>1.501537556989071</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.344074241345221</v>
@@ -28807,7 +28699,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.531885274710544</v>
+        <v>1.509940619058064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.271534218614936</v>
@@ -28896,7 +28788,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535682535702978</v>
+        <v>1.521969424577957</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.151473538557006</v>
@@ -28985,7 +28877,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.53230629252488</v>
+        <v>1.517754239944139</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.334161557435347</v>
@@ -29074,7 +28966,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552677645206616</v>
+        <v>1.53692620311476</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.29225743763313</v>
@@ -29163,7 +29055,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.546904184034545</v>
+        <v>1.53348435248548</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.173785585214396</v>
@@ -29252,7 +29144,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.549289200666632</v>
+        <v>1.537243954709226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.198565025293732</v>
@@ -29341,7 +29233,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539337086334702</v>
+        <v>1.530076474963995</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.297098125770178</v>
@@ -29430,7 +29322,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.572276803102204</v>
+        <v>1.541678353641139</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.993718543651148</v>
@@ -29519,7 +29411,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.640447283363579</v>
+        <v>1.592171699357604</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.203940381572596</v>
@@ -29608,7 +29500,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.643915544974219</v>
+        <v>1.597169618839181</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.653725971670491</v>
@@ -29697,7 +29589,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655760416649949</v>
+        <v>1.605619859036574</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.335762962218944</v>
@@ -29786,7 +29678,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.655031295568903</v>
+        <v>1.594307401974611</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.540878784977731</v>
@@ -29875,7 +29767,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658057146652733</v>
+        <v>1.597361152004137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.429905501633458</v>
@@ -29964,7 +29856,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.657789308396381</v>
+        <v>1.608995654590463</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.414223476354989</v>
@@ -30053,7 +29945,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642864913704024</v>
+        <v>1.59546905653444</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.257164035574563</v>
@@ -30142,7 +30034,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616995306084713</v>
+        <v>1.585063542099312</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.508741790083223</v>
@@ -30231,7 +30123,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613500489988953</v>
+        <v>1.580478550230183</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.688694848818366</v>
@@ -30320,7 +30212,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608230167196089</v>
+        <v>1.573994144343231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.646239848758105</v>
@@ -30409,7 +30301,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614407123672962</v>
+        <v>1.577680357216545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.545951943425441</v>
@@ -30498,7 +30390,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615607786629634</v>
+        <v>1.575534620989359</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.592903218478175</v>
@@ -30587,7 +30479,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616029087751509</v>
+        <v>1.580745687803741</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.628356378892093</v>
@@ -30676,7 +30568,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620812551875091</v>
+        <v>1.581681275325448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.490043558857201</v>
@@ -30765,7 +30657,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.623968239949942</v>
+        <v>1.596301557112591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.573456663701765</v>
@@ -30854,7 +30746,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623353382018078</v>
+        <v>1.593436675937002</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.665376745481952</v>
@@ -30943,7 +30835,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.620016499974632</v>
+        <v>1.593055954373969</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.679845108878809</v>
@@ -31032,7 +30924,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.625032889992282</v>
+        <v>1.604890726929976</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.59734283682998</v>
@@ -31121,7 +31013,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628906259573014</v>
+        <v>1.612205743805495</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.648440042427396</v>
@@ -31210,7 +31102,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.64055055906154</v>
+        <v>1.626472644306322</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.695636718277011</v>
@@ -31299,7 +31191,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643760459603363</v>
+        <v>1.631767433975746</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.524979137522918</v>
@@ -31388,7 +31280,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635368531303939</v>
+        <v>1.630884674285092</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.754761936804227</v>
@@ -31477,7 +31369,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.659326518554823</v>
+        <v>1.65010850290042</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.050479223438594</v>
@@ -31566,7 +31458,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.655372235159339</v>
+        <v>1.654458584128867</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.382066409076602</v>
@@ -31655,7 +31547,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.667243058729838</v>
+        <v>1.668364257605019</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.43298090139595</v>
@@ -31744,7 +31636,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.652176285617396</v>
+        <v>1.656186590579643</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.179565054044359</v>
@@ -31833,7 +31725,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.668421256252257</v>
+        <v>1.670694855016931</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.45880274264762</v>
@@ -31922,7 +31814,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.683980602900491</v>
+        <v>1.689847851155348</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.55645826929856</v>
@@ -32011,7 +31903,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.6796754475102</v>
+        <v>1.691109121461314</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.638729844886479</v>
@@ -32100,7 +31992,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678222930993616</v>
+        <v>1.690580964242542</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.382574335479323</v>
@@ -32189,7 +32081,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.674063708984625</v>
+        <v>1.687963603724032</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.329390987951389</v>
@@ -32278,7 +32170,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.665629790689042</v>
+        <v>1.683229161540191</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.768891076265811</v>
@@ -32367,7 +32259,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.662690052685884</v>
+        <v>1.679128492863869</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.717316230957445</v>
@@ -32456,7 +32348,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.664792908575797</v>
+        <v>1.685382222270029</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.027396348626724</v>
@@ -32742,7 +32634,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475692172406597</v>
+        <v>1.417481707841413</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.408315293979259</v>
@@ -32831,7 +32723,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.501078002114788</v>
+        <v>1.4374233812147</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.301848379089178</v>
@@ -32920,7 +32812,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496397851639287</v>
+        <v>1.432737349269581</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.358098709216853</v>
@@ -33009,7 +32901,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.500160291631178</v>
+        <v>1.435924082478365</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.423803035821946</v>
@@ -33098,7 +32990,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484392984675074</v>
+        <v>1.426552819600396</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.330816181030658</v>
@@ -33187,7 +33079,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485318784571303</v>
+        <v>1.418743292741892</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.533077897308084</v>
@@ -33276,7 +33168,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.512741174499853</v>
+        <v>1.437292001437948</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.412853825024829</v>
@@ -33365,7 +33257,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.57816124586585</v>
+        <v>1.483966333571117</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.389427158643315</v>
@@ -33454,7 +33346,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.575450862015512</v>
+        <v>1.480613177984003</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.466494473247628</v>
@@ -33543,7 +33435,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581946417932169</v>
+        <v>1.489430934080302</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.486800752084786</v>
@@ -33632,7 +33524,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.586210501292807</v>
+        <v>1.497721697638958</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.430920353956102</v>
@@ -33721,7 +33613,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.582759893837753</v>
+        <v>1.503640555448311</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.043404183573661</v>
@@ -33810,7 +33702,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487631662182882</v>
+        <v>1.434094346201168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.977433033451521</v>
@@ -33899,7 +33791,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.50252289482283</v>
+        <v>1.444534661088609</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.96833370037508</v>
@@ -33988,7 +33880,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493035192752938</v>
+        <v>1.437604985189003</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.023873069580122</v>
@@ -34077,7 +33969,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.482732574321501</v>
+        <v>1.430543673287978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.028154505198422</v>
@@ -34166,7 +34058,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.485684392280432</v>
+        <v>1.43767347904585</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.004828992160215</v>
@@ -34255,7 +34147,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.482475241134621</v>
+        <v>1.431808052610196</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.023216009753091</v>
@@ -34344,7 +34236,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.484410777871684</v>
+        <v>1.43431200997975</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.081636501285733</v>
@@ -34433,7 +34325,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.49500031378184</v>
+        <v>1.444456406089983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.028386606632667</v>
@@ -34522,7 +34414,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.496454566136046</v>
+        <v>1.454546747417204</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.002963387677038</v>
@@ -34611,7 +34503,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492601423585345</v>
+        <v>1.451790178596986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.004621566245786</v>
@@ -34700,7 +34592,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485906591151993</v>
+        <v>1.445724404910182</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.038130405099893</v>
@@ -34789,7 +34681,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495906110325697</v>
+        <v>1.457604033365412</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.999587624585329</v>
@@ -34878,7 +34770,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496352923974063</v>
+        <v>1.457675514578107</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.011038800061153</v>
@@ -34967,7 +34859,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.500544977416011</v>
+        <v>1.464549324306549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.049017475372685</v>
@@ -35056,7 +34948,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531163270640837</v>
+        <v>1.467269844117677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.919103877466211</v>
@@ -35145,7 +35037,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592227448323644</v>
+        <v>1.50920217902928</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.523017566527682</v>
@@ -35234,7 +35126,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622164983841462</v>
+        <v>1.531509683384769</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.652584788639267</v>
@@ -35323,7 +35215,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630866791362619</v>
+        <v>1.544349232128894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.620884754688252</v>
@@ -35412,7 +35304,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653284477371972</v>
+        <v>1.561909061742479</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.402382346214941</v>
@@ -35501,7 +35393,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678961625895544</v>
+        <v>1.569642453283248</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.392722486614654</v>
@@ -35590,7 +35482,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.696395069995817</v>
+        <v>1.587705056454353</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.087337229769787</v>
@@ -35679,7 +35571,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700305068934927</v>
+        <v>1.58723037367436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.706664938047065</v>
@@ -35768,7 +35660,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.678071178791685</v>
+        <v>1.570093215561866</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.780587269991679</v>
@@ -35857,7 +35749,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661572128145148</v>
+        <v>1.555166901992284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.50705711934459</v>
@@ -35946,7 +35838,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.671313790402152</v>
+        <v>1.559698992708049</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.623242118376778</v>
@@ -36035,7 +35927,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686529954074056</v>
+        <v>1.571651742195766</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.83260728883107</v>
@@ -36124,7 +36016,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.64019779957888</v>
+        <v>1.54100238618809</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.483873365275898</v>
@@ -36213,7 +36105,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.637241066623975</v>
+        <v>1.535791614641876</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.428102441091437</v>
@@ -36302,7 +36194,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.638061878194844</v>
+        <v>1.534065973461153</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.614400488083009</v>
@@ -36391,7 +36283,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639073609124934</v>
+        <v>1.549318475929676</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.31505368465216</v>
@@ -36480,7 +36372,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644519617433349</v>
+        <v>1.559670553396301</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.474495176223285</v>
@@ -36569,7 +36461,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632762303233323</v>
+        <v>1.54735300783498</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542031799197599</v>
@@ -36658,7 +36550,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.63235223543378</v>
+        <v>1.556971030409199</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.477658114724858</v>
@@ -36747,7 +36639,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.600809863159085</v>
+        <v>1.534176451754288</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.378815378730057</v>
@@ -36836,7 +36728,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587576920363444</v>
+        <v>1.523458071046825</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.514317386602157</v>
@@ -36925,7 +36817,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587642878767773</v>
+        <v>1.524260932251699</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.453041618147387</v>
@@ -37014,7 +36906,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.576954441770548</v>
+        <v>1.520758725632971</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.655736134252541</v>
@@ -37103,7 +36995,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.599621539651961</v>
+        <v>1.544239187114212</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.622271898895352</v>
@@ -37192,7 +37084,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603286669018013</v>
+        <v>1.558410360237267</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.476118275362331</v>
@@ -37281,7 +37173,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.594220724171393</v>
+        <v>1.558440616569502</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.521670699729514</v>
@@ -37370,7 +37262,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.596830087187336</v>
+        <v>1.56476194919072</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.517508765892022</v>
@@ -37459,7 +37351,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.626400118946925</v>
+        <v>1.589329146196007</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.822693083989571</v>
@@ -37548,7 +37440,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624119089404474</v>
+        <v>1.592601531706797</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.656618205963628</v>
@@ -37637,7 +37529,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.593692556851879</v>
+        <v>1.570578682726162</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.473381233671387</v>
@@ -37726,7 +37618,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.586315036502652</v>
+        <v>1.563761603563198</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.573309432873116</v>
@@ -37815,7 +37707,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.581017297187288</v>
+        <v>1.559301183693696</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.528463540321992</v>
@@ -37904,7 +37796,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.564584869869904</v>
+        <v>1.555222387033843</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.619047875351729</v>
@@ -37993,7 +37885,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.564021033157442</v>
+        <v>1.54656212561183</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.548185609070968</v>
@@ -38082,7 +37974,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.592987693328545</v>
+        <v>1.574879319895465</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.619431765014709</v>
